--- a/PlanejamentoDesign.xlsx
+++ b/PlanejamentoDesign.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
   <si>
     <t>Projeto</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>Recorte Diferente + Cores</t>
   </si>
 </sst>
 </file>
@@ -194,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Over/Under flag&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.499984740745262"/>
@@ -297,6 +300,14 @@
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -469,7 +480,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,6 +588,9 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -597,261 +611,13 @@
     <cellStyle name="Título 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Título 4" xfId="11" builtinId="19" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <color theme="4" tint="-0.499984740745262"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89992980742820516"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89992980742820516"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89992980742820516"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1001,6 +767,247 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89992980742820516"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89992980742820516"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89992980742820516"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color theme="2" tint="-0.89996032593768116"/>
@@ -1032,8 +1039,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium2">
     <tableStyle name="Estilo de Tabela Personalizado" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1206,31 +1213,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Controlador_de_projeto" displayName="Controlador_de_projeto" ref="B4:O19" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Controlador_de_projeto" displayName="Controlador_de_projeto" ref="B4:O19" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="B4:O19"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Projeto" dataDxfId="15" dataCellStyle="Texto"/>
-    <tableColumn id="2" name="Categoria" dataDxfId="14" dataCellStyle="Texto"/>
-    <tableColumn id="3" name="Atribuído" dataDxfId="13" dataCellStyle="Texto"/>
-    <tableColumn id="4" name="Estimado_x000a_Início" dataDxfId="12" dataCellStyle="Data"/>
-    <tableColumn id="5" name="Estimado _x000a_Término" dataDxfId="11" dataCellStyle="Data"/>
-    <tableColumn id="6" name="Trabalho Estimado (em horas)" dataDxfId="10" dataCellStyle="Números"/>
-    <tableColumn id="7" name="Duração Estimada (em dias)" dataDxfId="9" dataCellStyle="Duração estimada">
+    <tableColumn id="1" name="Projeto" dataDxfId="14" dataCellStyle="Texto"/>
+    <tableColumn id="2" name="Categoria" dataDxfId="13" dataCellStyle="Texto"/>
+    <tableColumn id="3" name="Atribuído" dataDxfId="12" dataCellStyle="Texto"/>
+    <tableColumn id="4" name="Estimado_x000a_Início" dataDxfId="11" dataCellStyle="Data"/>
+    <tableColumn id="5" name="Estimado _x000a_Término" dataDxfId="10" dataCellStyle="Data"/>
+    <tableColumn id="6" name="Trabalho Estimado (em horas)" dataDxfId="9" dataCellStyle="Números"/>
+    <tableColumn id="7" name="Duração Estimada (em dias)" dataDxfId="8" dataCellStyle="Duração estimada">
       <calculatedColumnFormula>IF(COUNTA('Controlador de projeto'!$E5,'Controlador de projeto'!$F5)&lt;&gt;2,"",DAYS360('Controlador de projeto'!$E5,'Controlador de projeto'!$F5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Real _x000a_Início" dataDxfId="16" dataCellStyle="Início Real"/>
-    <tableColumn id="9" name="Real_x000a_Término" dataDxfId="22" dataCellStyle="Data"/>
-    <tableColumn id="10" name="Ok" dataDxfId="21" dataCellStyle="Sinalizador">
+    <tableColumn id="8" name="Real _x000a_Início" dataDxfId="7" dataCellStyle="Início Real"/>
+    <tableColumn id="9" name="Real_x000a_Término" dataDxfId="6" dataCellStyle="Data"/>
+    <tableColumn id="10" name="Ok" dataDxfId="5" dataCellStyle="Sinalizador">
       <calculatedColumnFormula>IFERROR(IF(Controlador_de_projeto[Trabalho Real (em horas)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Trabalho Real (em horas)]]-Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])/Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])&gt;FlagPercent,1,0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Trabalho Real (em horas)" dataDxfId="20" dataCellStyle="Números"/>
-    <tableColumn id="12" name="Ok2" dataDxfId="19" dataCellStyle="Sinalizador">
+    <tableColumn id="11" name="Trabalho Real (em horas)" dataDxfId="4" dataCellStyle="Números"/>
+    <tableColumn id="12" name="Ok2" dataDxfId="3" dataCellStyle="Sinalizador">
       <calculatedColumnFormula>IFERROR(IF(Controlador_de_projeto[Duração Real (em dias)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Duração Real (em dias)]]-Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])/Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])&gt;FlagPercent,1,0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Duração Real (em dias)" dataDxfId="18" dataCellStyle="Coluna cinza">
+    <tableColumn id="13" name="Duração Real (em dias)" dataDxfId="2" dataCellStyle="Coluna cinza">
       <calculatedColumnFormula>IF(COUNTA('Controlador de projeto'!$I5,'Controlador de projeto'!$J5)&lt;&gt;2,"",DAYS360('Controlador de projeto'!$I5,'Controlador de projeto'!$J5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Anotações" dataDxfId="17" dataCellStyle="Texto"/>
+    <tableColumn id="14" name="Anotações" dataDxfId="1" dataCellStyle="Texto"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de Tabela Personalizado" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1487,7 +1494,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1789,7 +1796,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="10" t="s">
         <v>40</v>
       </c>
@@ -1805,17 +1812,29 @@
       <c r="F10" s="11">
         <v>43700</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="H10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="11">
+        <v>43700</v>
+      </c>
+      <c r="J10" s="11">
+        <v>43700</v>
+      </c>
       <c r="K10" s="15"/>
-      <c r="L10" s="12"/>
+      <c r="L10" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="M10" s="15"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="10"/>
+      <c r="N10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
@@ -1829,10 +1848,10 @@
         <v>26</v>
       </c>
       <c r="E11" s="11">
-        <v>43700</v>
+        <v>43703</v>
       </c>
       <c r="F11" s="11">
-        <v>43700</v>
+        <v>43703</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="13" t="s">
@@ -1858,10 +1877,10 @@
         <v>26</v>
       </c>
       <c r="E12" s="11">
-        <v>43701</v>
+        <v>43703</v>
       </c>
       <c r="F12" s="11">
-        <v>43701</v>
+        <v>43703</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="13" t="s">
@@ -1876,7 +1895,7 @@
       <c r="O12" s="10"/>
     </row>
     <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="10" t="s">
         <v>43</v>
       </c>
@@ -1887,10 +1906,10 @@
         <v>26</v>
       </c>
       <c r="E13" s="11">
-        <v>43701</v>
+        <v>43704</v>
       </c>
       <c r="F13" s="11">
-        <v>43701</v>
+        <v>43704</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="16" t="s">
@@ -1915,11 +1934,11 @@
       <c r="D14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="20">
-        <v>43703</v>
-      </c>
-      <c r="F14" s="20">
-        <v>43703</v>
+      <c r="E14" s="11">
+        <v>43704</v>
+      </c>
+      <c r="F14" s="11">
+        <v>43704</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="13" t="s">
@@ -1954,10 +1973,10 @@
         <v>26</v>
       </c>
       <c r="E15" s="20">
-        <v>43703</v>
+        <v>43705</v>
       </c>
       <c r="F15" s="20">
-        <v>43703</v>
+        <v>43705</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="13" t="s">
@@ -1992,10 +2011,10 @@
         <v>26</v>
       </c>
       <c r="E16" s="20">
-        <v>43704</v>
+        <v>43705</v>
       </c>
       <c r="F16" s="20">
-        <v>43704</v>
+        <v>43705</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="16" t="s">
@@ -2030,10 +2049,10 @@
         <v>26</v>
       </c>
       <c r="E17" s="20">
-        <v>43704</v>
+        <v>43706</v>
       </c>
       <c r="F17" s="20">
-        <v>43704</v>
+        <v>43706</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="13" t="s">
@@ -2068,10 +2087,10 @@
         <v>26</v>
       </c>
       <c r="E18" s="20">
-        <v>43705</v>
+        <v>43706</v>
       </c>
       <c r="F18" s="20">
-        <v>43705</v>
+        <v>43706</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="13" t="s">
@@ -2106,10 +2125,10 @@
         <v>26</v>
       </c>
       <c r="E19" s="20">
-        <v>43705</v>
+        <v>43707</v>
       </c>
       <c r="F19" s="20">
-        <v>43705</v>
+        <v>43707</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="16" t="s">
@@ -2134,28 +2153,33 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L5 L8:L13">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="21" priority="10">
       <formula>(ABS((L5-G5))/G5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N7 N9:N13">
-    <cfRule type="expression" dxfId="7" priority="11">
+  <conditionalFormatting sqref="N5:N7 N9 N11:N13">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>(ABS((N5-H5))/H5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7 H10 H13 H16 H19">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>(ABS((H7-B7))/B7)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>(ABS((H5-B5))/B5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>(ABS((H6-B6))/B6)&gt;FlagPercent</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>(ABS((N10-H10))/H10)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="20">
@@ -2202,7 +2226,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{981D7EE4-7E94-41DD-989D-38C05876B668}">
+          <x14:cfRule type="iconSet" priority="27" id="{981D7EE4-7E94-41DD-989D-38C05876B668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2221,7 +2245,7 @@
           <xm:sqref>K5:K19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{136B1933-ABA4-46F0-A1B3-AE0D99AE777F}">
+          <x14:cfRule type="iconSet" priority="28" id="{136B1933-ABA4-46F0-A1B3-AE0D99AE777F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>

--- a/PlanejamentoDesign.xlsx
+++ b/PlanejamentoDesign.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curso Design - SocialMedia\ProjetoAulas\socialmedia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Curso Photoshop - SocialMedia\ProjetosAulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,12 +23,12 @@
     <definedName name="FlagPercent">'Controlador de projeto'!$D$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Controlador de projeto'!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="58">
   <si>
     <t>Projeto</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Runner</t>
   </si>
   <si>
-    <t>Hamburguer</t>
-  </si>
-  <si>
     <t>Pizzaria</t>
   </si>
   <si>
@@ -188,12 +185,33 @@
   </si>
   <si>
     <t>Recorte Diferente + Cores</t>
+  </si>
+  <si>
+    <t>Shapes + Cores + Sobreposições</t>
+  </si>
+  <si>
+    <t>Processo criativo Próprio + Dificuldade Cores</t>
+  </si>
+  <si>
+    <t>Hambúrguer</t>
+  </si>
+  <si>
+    <t>3 Imagens + Recortes + Camera Raw (Vinheta)</t>
+  </si>
+  <si>
+    <t>1h 30 Min</t>
+  </si>
+  <si>
+    <t>3 imagens + Brushes + Recortes + Fontes</t>
+  </si>
+  <si>
+    <t>Recorte com Sobreposição +  Cores + Finalização</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Over/Under flag&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
@@ -304,7 +322,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="3" tint="-0.499984740745262"/>
+      <color theme="2" tint="-0.89989928891872917"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -480,7 +498,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -523,9 +541,6 @@
     <xf numFmtId="3" fontId="9" fillId="2" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -589,8 +604,8 @@
     <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -618,358 +633,6 @@
         <i val="0"/>
         <color theme="4" tint="-0.499984740745262"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Over/Under flag&quot;;&quot;&quot;;&quot;&quot;"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Over/Under flag&quot;;&quot;&quot;;&quot;&quot;"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89992980742820516"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89992980742820516"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89992980742820516"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89992980742820516"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1005,6 +668,343 @@
         <i val="0"/>
         <color theme="4" tint="-0.499984740745262"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Over/Under flag&quot;;&quot;&quot;;&quot;&quot;"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Over/Under flag&quot;;&quot;&quot;;&quot;&quot;"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89992980742820516"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89992980742820516"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89992980742820516"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89992980742820516"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1075,7 +1075,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique para exibir a Configuração"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1122,7 +1122,7 @@
         <a:p>
           <a:pPr algn="ctr" rtl="0"/>
           <a:r>
-            <a:rPr lang="pt-br" sz="1100" b="1"/>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
             <a:t>CONFIGURAÇÃO</a:t>
           </a:r>
         </a:p>
@@ -1154,7 +1154,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique para exibir Projetos"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1201,7 +1201,7 @@
         <a:p>
           <a:pPr algn="ctr" rtl="0"/>
           <a:r>
-            <a:rPr lang="pt-br" sz="1100" b="1"/>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
             <a:t>PROJETOS</a:t>
           </a:r>
         </a:p>
@@ -1213,31 +1213,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Controlador_de_projeto" displayName="Controlador_de_projeto" ref="B4:O19" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Controlador_de_projeto" displayName="Controlador_de_projeto" ref="B4:O19" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="B4:O19"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Projeto" dataDxfId="14" dataCellStyle="Texto"/>
-    <tableColumn id="2" name="Categoria" dataDxfId="13" dataCellStyle="Texto"/>
-    <tableColumn id="3" name="Atribuído" dataDxfId="12" dataCellStyle="Texto"/>
-    <tableColumn id="4" name="Estimado_x000a_Início" dataDxfId="11" dataCellStyle="Data"/>
-    <tableColumn id="5" name="Estimado _x000a_Término" dataDxfId="10" dataCellStyle="Data"/>
-    <tableColumn id="6" name="Trabalho Estimado (em horas)" dataDxfId="9" dataCellStyle="Números"/>
-    <tableColumn id="7" name="Duração Estimada (em dias)" dataDxfId="8" dataCellStyle="Duração estimada">
+    <tableColumn id="1" name="Projeto" dataDxfId="19" dataCellStyle="Texto"/>
+    <tableColumn id="2" name="Categoria" dataDxfId="18" dataCellStyle="Texto"/>
+    <tableColumn id="3" name="Atribuído" dataDxfId="17" dataCellStyle="Texto"/>
+    <tableColumn id="4" name="Estimado_x000a_Início" dataDxfId="16" dataCellStyle="Data"/>
+    <tableColumn id="5" name="Estimado _x000a_Término" dataDxfId="15" dataCellStyle="Data"/>
+    <tableColumn id="6" name="Trabalho Estimado (em horas)" dataDxfId="14" dataCellStyle="Números"/>
+    <tableColumn id="7" name="Duração Estimada (em dias)" dataDxfId="13" dataCellStyle="Duração estimada">
       <calculatedColumnFormula>IF(COUNTA('Controlador de projeto'!$E5,'Controlador de projeto'!$F5)&lt;&gt;2,"",DAYS360('Controlador de projeto'!$E5,'Controlador de projeto'!$F5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Real _x000a_Início" dataDxfId="7" dataCellStyle="Início Real"/>
-    <tableColumn id="9" name="Real_x000a_Término" dataDxfId="6" dataCellStyle="Data"/>
-    <tableColumn id="10" name="Ok" dataDxfId="5" dataCellStyle="Sinalizador">
+    <tableColumn id="8" name="Real _x000a_Início" dataDxfId="12" dataCellStyle="Início Real"/>
+    <tableColumn id="9" name="Real_x000a_Término" dataDxfId="11" dataCellStyle="Data"/>
+    <tableColumn id="10" name="Ok" dataDxfId="10" dataCellStyle="Sinalizador">
       <calculatedColumnFormula>IFERROR(IF(Controlador_de_projeto[Trabalho Real (em horas)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Trabalho Real (em horas)]]-Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])/Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])&gt;FlagPercent,1,0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Trabalho Real (em horas)" dataDxfId="4" dataCellStyle="Números"/>
-    <tableColumn id="12" name="Ok2" dataDxfId="3" dataCellStyle="Sinalizador">
+    <tableColumn id="11" name="Trabalho Real (em horas)" dataDxfId="9" dataCellStyle="Números"/>
+    <tableColumn id="12" name="Ok2" dataDxfId="8" dataCellStyle="Sinalizador">
       <calculatedColumnFormula>IFERROR(IF(Controlador_de_projeto[Duração Real (em dias)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Duração Real (em dias)]]-Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])/Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])&gt;FlagPercent,1,0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Duração Real (em dias)" dataDxfId="2" dataCellStyle="Coluna cinza">
+    <tableColumn id="13" name="Duração Real (em dias)" dataDxfId="7" dataCellStyle="Coluna cinza">
       <calculatedColumnFormula>IF(COUNTA('Controlador de projeto'!$I5,'Controlador de projeto'!$J5)&lt;&gt;2,"",DAYS360('Controlador de projeto'!$I5,'Controlador de projeto'!$J5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Anotações" dataDxfId="1" dataCellStyle="Texto"/>
+    <tableColumn id="14" name="Anotações" dataDxfId="6" dataCellStyle="Texto"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de Tabela Personalizado" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1494,7 +1494,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1519,16 +1519,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -1545,51 +1545,51 @@
       <c r="H3"/>
     </row>
     <row r="4" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
@@ -1608,7 +1608,7 @@
       <c r="G5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="11">
@@ -1617,14 +1617,14 @@
       <c r="J5" s="11">
         <v>43697</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="16" t="s">
+      <c r="M5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>32</v>
       </c>
       <c r="O5" s="10" t="s">
@@ -1632,7 +1632,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
@@ -1651,7 +1651,7 @@
       <c r="G6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="11">
@@ -1660,12 +1660,12 @@
       <c r="J6" s="11">
         <v>43698</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16" t="s">
+      <c r="M6" s="14"/>
+      <c r="N6" s="15" t="s">
         <v>32</v>
       </c>
       <c r="O6" s="10" t="s">
@@ -1673,7 +1673,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
@@ -1692,7 +1692,7 @@
       <c r="G7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>32</v>
       </c>
       <c r="I7" s="11">
@@ -1701,12 +1701,12 @@
       <c r="J7" s="11">
         <v>43698</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16" t="s">
+      <c r="M7" s="14"/>
+      <c r="N7" s="15" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="10" t="s">
@@ -1714,7 +1714,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
@@ -1742,11 +1742,11 @@
       <c r="J8" s="11">
         <v>43699</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="15"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="13" t="s">
         <v>32</v>
       </c>
@@ -1755,7 +1755,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>38</v>
       </c>
@@ -1783,12 +1783,12 @@
       <c r="J9" s="11">
         <v>43699</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16" t="s">
+      <c r="M9" s="14"/>
+      <c r="N9" s="15" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="10" t="s">
@@ -1796,7 +1796,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="10" t="s">
         <v>40</v>
       </c>
@@ -1815,7 +1815,7 @@
       <c r="G10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>32</v>
       </c>
       <c r="I10" s="11">
@@ -1824,20 +1824,20 @@
       <c r="J10" s="11">
         <v>43700</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16" t="s">
+      <c r="M10" s="14"/>
+      <c r="N10" s="15" t="s">
         <v>32</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="10" t="s">
         <v>41</v>
       </c>
@@ -1853,20 +1853,32 @@
       <c r="F11" s="11">
         <v>43703</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="H11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="10"/>
+      <c r="I11" s="11">
+        <v>43703</v>
+      </c>
+      <c r="J11" s="11">
+        <v>43703</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
@@ -1882,22 +1894,34 @@
       <c r="F12" s="11">
         <v>43703</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="H12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="10"/>
+      <c r="I12" s="11">
+        <v>43703</v>
+      </c>
+      <c r="J12" s="11">
+        <v>43703</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>21</v>
@@ -1911,22 +1935,34 @@
       <c r="F13" s="11">
         <v>43704</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="10"/>
+      <c r="G13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="11">
+        <v>43704</v>
+      </c>
+      <c r="J13" s="11">
+        <v>43704</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="19" t="s">
-        <v>44</v>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>21</v>
@@ -1940,240 +1976,258 @@
       <c r="F14" s="11">
         <v>43704</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="H14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="23" t="str">
+      <c r="I14" s="11">
+        <v>43704</v>
+      </c>
+      <c r="J14" s="11">
+        <v>43704</v>
+      </c>
+      <c r="K14" s="22" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Trabalho Real (em horas)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Trabalho Real (em horas)]]-Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])/Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="23" t="str">
+      <c r="L14" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="22" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Duração Real (em dias)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Duração Real (em dias)]]-Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])/Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="N14" s="24" t="str">
-        <f>IF(COUNTA('Controlador de projeto'!$I14,'Controlador de projeto'!$J14)&lt;&gt;2,"",DAYS360('Controlador de projeto'!$I14,'Controlador de projeto'!$J14,FALSE))</f>
-        <v/>
-      </c>
-      <c r="O14" s="19"/>
+      <c r="N14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="19" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>43705</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <v>43705</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="H15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="23" t="str">
+      <c r="I15" s="19">
+        <v>43705</v>
+      </c>
+      <c r="J15" s="19">
+        <v>43705</v>
+      </c>
+      <c r="K15" s="22" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Trabalho Real (em horas)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Trabalho Real (em horas)]]-Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])/Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="23" t="str">
+      <c r="L15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="22" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Duração Real (em dias)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Duração Real (em dias)]]-Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])/Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="N15" s="24" t="str">
-        <f>IF(COUNTA('Controlador de projeto'!$I15,'Controlador de projeto'!$J15)&lt;&gt;2,"",DAYS360('Controlador de projeto'!$I15,'Controlador de projeto'!$J15,FALSE))</f>
-        <v/>
-      </c>
-      <c r="O15" s="19"/>
+      <c r="N15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>43705</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="19">
         <v>43705</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="23" t="str">
+      <c r="G16" s="20"/>
+      <c r="H16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="22" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Trabalho Real (em horas)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Trabalho Real (em horas)]]-Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])/Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="23" t="str">
+      <c r="L16" s="20"/>
+      <c r="M16" s="22" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Duração Real (em dias)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Duração Real (em dias)]]-Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])/Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="N16" s="24" t="str">
+      <c r="N16" s="23" t="str">
         <f>IF(COUNTA('Controlador de projeto'!$I16,'Controlador de projeto'!$J16)&lt;&gt;2,"",DAYS360('Controlador de projeto'!$I16,'Controlador de projeto'!$J16,FALSE))</f>
         <v/>
       </c>
-      <c r="O16" s="19"/>
+      <c r="O16" s="35"/>
     </row>
     <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>43706</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <v>43706</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="23" t="str">
+      <c r="I17" s="21"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="22" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Trabalho Real (em horas)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Trabalho Real (em horas)]]-Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])/Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="23" t="str">
+      <c r="L17" s="20"/>
+      <c r="M17" s="22" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Duração Real (em dias)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Duração Real (em dias)]]-Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])/Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="N17" s="24" t="str">
+      <c r="N17" s="23" t="str">
         <f>IF(COUNTA('Controlador de projeto'!$I17,'Controlador de projeto'!$J17)&lt;&gt;2,"",DAYS360('Controlador de projeto'!$I17,'Controlador de projeto'!$J17,FALSE))</f>
         <v/>
       </c>
-      <c r="O17" s="19"/>
+      <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="19" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <v>43706</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="19">
         <v>43706</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="23" t="str">
+      <c r="I18" s="21"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="22" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Trabalho Real (em horas)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Trabalho Real (em horas)]]-Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])/Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="23" t="str">
+      <c r="L18" s="20"/>
+      <c r="M18" s="22" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Duração Real (em dias)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Duração Real (em dias)]]-Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])/Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="N18" s="24" t="str">
+      <c r="N18" s="23" t="str">
         <f>IF(COUNTA('Controlador de projeto'!$I18,'Controlador de projeto'!$J18)&lt;&gt;2,"",DAYS360('Controlador de projeto'!$I18,'Controlador de projeto'!$J18,FALSE))</f>
         <v/>
       </c>
-      <c r="O18" s="19"/>
+      <c r="O18" s="18"/>
     </row>
     <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <v>43707</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="19">
         <v>43707</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="23" t="str">
+      <c r="G19" s="20"/>
+      <c r="H19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="22" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Trabalho Real (em horas)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Trabalho Real (em horas)]]-Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])/Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="23" t="str">
+      <c r="L19" s="20"/>
+      <c r="M19" s="22" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Duração Real (em dias)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Duração Real (em dias)]]-Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])/Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="N19" s="24" t="str">
+      <c r="N19" s="23" t="str">
         <f>IF(COUNTA('Controlador de projeto'!$I19,'Controlador de projeto'!$J19)&lt;&gt;2,"",DAYS360('Controlador de projeto'!$I19,'Controlador de projeto'!$J19,FALSE))</f>
         <v/>
       </c>
-      <c r="O19" s="19"/>
+      <c r="O19" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L5 L8:L13">
-    <cfRule type="expression" dxfId="21" priority="10">
+  <conditionalFormatting sqref="L5 L8:L11">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>(ABS((L5-G5))/G5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:N7 N9 N11:N13">
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>(ABS((N5-H5))/H5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7 H10 H13 H16 H19">
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>(ABS((H7-B7))/B7)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>(ABS((H5-B5))/B5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>(ABS((H6-B6))/B6)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2182,20 +2236,14 @@
       <formula>(ABS((N10-H10))/H10)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="20">
+  <dataValidations count="18">
     <dataValidation allowBlank="1" showInputMessage="1" prompt="Insira projetos nesta planilha de controle. Defina a porcentagem a sinalizar em D2. Trabalho real em horas e duração real em dias destacará valores acima/abaixo com o estilo de fonte em negrito vermelho e um ícone de sinalizador nas colunas K e M " sqref="A1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Porcentagem acima/abaixo personalizáveis usadas para realçar o trabalho real em horas e dias na tabela de projetos que excedam ou fiquem abaixo deste número" sqref="D2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Selecione uma categoria na lista ou crie uma nova categoria para exibir nesta lista da planilha Configuração." sqref="C9:C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Selecione uma categoria na lista ou crie uma nova categoria para exibir nesta lista da planilha Configuração." sqref="C5:C14">
       <formula1>CategoryList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Selecione um funcionário na lista ou crie um novo funcionário para exibir nesta lista da planilha Configuração." sqref="D9:D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Selecione um funcionário na lista ou crie um novo funcionário para exibir nesta lista da planilha Configuração." sqref="D5:D14">
       <formula1>EmployeeList</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Selecione um funcionário na lista ou crie um novo funcionário para exibir nesta lista da planilha Configuração." sqref="D5:D8">
-      <formula1>EmployeeList</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Selecione uma categoria na lista ou crie uma nova categoria para exibir nesta lista da planilha Configuração." sqref="C5:C8">
-      <formula1>CategoryList</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira nomes de projetos desta coluna" sqref="B4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Selecione um nome de Categoria na lista suspensa em cada célula nesta coluna. As opções nesta lista são definidas na planilha Configuração. Pressione Alt+Seta para baixo para navegar pela lista e Enter para fazer uma seleção" sqref="C4"/>
@@ -2353,8 +2401,8 @@
       </c>
     </row>
     <row r="11" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="3">

--- a/PlanejamentoDesign.xlsx
+++ b/PlanejamentoDesign.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Curso Photoshop - SocialMedia\ProjetosAulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curso Design - SocialMedia\ProjetoAulas\socialmedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,12 +23,12 @@
     <definedName name="FlagPercent">'Controlador de projeto'!$D$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Controlador de projeto'!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="62">
   <si>
     <t>Projeto</t>
   </si>
@@ -206,12 +206,24 @@
   </si>
   <si>
     <t>Recorte com Sobreposição +  Cores + Finalização</t>
+  </si>
+  <si>
+    <t>Sombra + Efeito Opacidade e Distancia com fonte</t>
+  </si>
+  <si>
+    <t>Pattern Overlay</t>
+  </si>
+  <si>
+    <t>Clipping Mask + Pattern Overlay diferente</t>
+  </si>
+  <si>
+    <t>Eclipse com drop shadow e inner shadow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Over/Under flag&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
@@ -328,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,12 +361,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,7 +504,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -562,46 +568,40 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="2" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="6" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="5" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -626,42 +626,7 @@
     <cellStyle name="Título 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Título 4" xfId="11" builtinId="19" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <b/>
@@ -1010,6 +975,48 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="2" tint="-0.89996032593768116"/>
       </font>
       <fill>
@@ -1039,8 +1046,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium2">
     <tableStyle name="Estilo de Tabela Personalizado" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="23"/>
-      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1075,7 +1082,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique para exibir a Configuração"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1154,7 +1161,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique para exibir Projetos"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,31 +1220,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Controlador_de_projeto" displayName="Controlador_de_projeto" ref="B4:O19" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Controlador_de_projeto" displayName="Controlador_de_projeto" ref="B4:O19" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="B4:O19"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Projeto" dataDxfId="19" dataCellStyle="Texto"/>
-    <tableColumn id="2" name="Categoria" dataDxfId="18" dataCellStyle="Texto"/>
-    <tableColumn id="3" name="Atribuído" dataDxfId="17" dataCellStyle="Texto"/>
-    <tableColumn id="4" name="Estimado_x000a_Início" dataDxfId="16" dataCellStyle="Data"/>
-    <tableColumn id="5" name="Estimado _x000a_Término" dataDxfId="15" dataCellStyle="Data"/>
-    <tableColumn id="6" name="Trabalho Estimado (em horas)" dataDxfId="14" dataCellStyle="Números"/>
-    <tableColumn id="7" name="Duração Estimada (em dias)" dataDxfId="13" dataCellStyle="Duração estimada">
+    <tableColumn id="1" name="Projeto" dataDxfId="14" dataCellStyle="Texto"/>
+    <tableColumn id="2" name="Categoria" dataDxfId="13" dataCellStyle="Texto"/>
+    <tableColumn id="3" name="Atribuído" dataDxfId="12" dataCellStyle="Texto"/>
+    <tableColumn id="4" name="Estimado_x000a_Início" dataDxfId="11" dataCellStyle="Data"/>
+    <tableColumn id="5" name="Estimado _x000a_Término" dataDxfId="10" dataCellStyle="Data"/>
+    <tableColumn id="6" name="Trabalho Estimado (em horas)" dataDxfId="9" dataCellStyle="Números"/>
+    <tableColumn id="7" name="Duração Estimada (em dias)" dataDxfId="8" dataCellStyle="Duração estimada">
       <calculatedColumnFormula>IF(COUNTA('Controlador de projeto'!$E5,'Controlador de projeto'!$F5)&lt;&gt;2,"",DAYS360('Controlador de projeto'!$E5,'Controlador de projeto'!$F5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Real _x000a_Início" dataDxfId="12" dataCellStyle="Início Real"/>
-    <tableColumn id="9" name="Real_x000a_Término" dataDxfId="11" dataCellStyle="Data"/>
-    <tableColumn id="10" name="Ok" dataDxfId="10" dataCellStyle="Sinalizador">
+    <tableColumn id="8" name="Real _x000a_Início" dataDxfId="7" dataCellStyle="Início Real"/>
+    <tableColumn id="9" name="Real_x000a_Término" dataDxfId="6" dataCellStyle="Data"/>
+    <tableColumn id="10" name="Ok" dataDxfId="5" dataCellStyle="Sinalizador">
       <calculatedColumnFormula>IFERROR(IF(Controlador_de_projeto[Trabalho Real (em horas)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Trabalho Real (em horas)]]-Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])/Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])&gt;FlagPercent,1,0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Trabalho Real (em horas)" dataDxfId="9" dataCellStyle="Números"/>
-    <tableColumn id="12" name="Ok2" dataDxfId="8" dataCellStyle="Sinalizador">
+    <tableColumn id="11" name="Trabalho Real (em horas)" dataDxfId="4" dataCellStyle="Números"/>
+    <tableColumn id="12" name="Ok2" dataDxfId="3" dataCellStyle="Sinalizador">
       <calculatedColumnFormula>IFERROR(IF(Controlador_de_projeto[Duração Real (em dias)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Duração Real (em dias)]]-Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])/Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])&gt;FlagPercent,1,0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Duração Real (em dias)" dataDxfId="7" dataCellStyle="Coluna cinza">
+    <tableColumn id="13" name="Duração Real (em dias)" dataDxfId="2" dataCellStyle="Coluna cinza">
       <calculatedColumnFormula>IF(COUNTA('Controlador de projeto'!$I5,'Controlador de projeto'!$J5)&lt;&gt;2,"",DAYS360('Controlador de projeto'!$I5,'Controlador de projeto'!$J5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Anotações" dataDxfId="6" dataCellStyle="Texto"/>
+    <tableColumn id="14" name="Anotações" dataDxfId="1" dataCellStyle="Texto"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de Tabela Personalizado" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1493,8 +1500,8 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1519,16 +1526,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -1545,46 +1552,46 @@
       <c r="H3"/>
     </row>
     <row r="4" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="O4" s="27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1988,18 +1995,18 @@
       <c r="J14" s="11">
         <v>43704</v>
       </c>
-      <c r="K14" s="22" t="str">
+      <c r="K14" s="21" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Trabalho Real (em horas)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Trabalho Real (em horas)]]-Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])/Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
       <c r="L14" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="M14" s="22" t="str">
+      <c r="M14" s="21" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Duração Real (em dias)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Duração Real (em dias)]]-Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])/Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O14" s="18" t="s">
@@ -2035,18 +2042,18 @@
       <c r="J15" s="19">
         <v>43705</v>
       </c>
-      <c r="K15" s="22" t="str">
+      <c r="K15" s="21" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Trabalho Real (em horas)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Trabalho Real (em horas)]]-Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])/Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
       <c r="L15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="22" t="str">
+      <c r="M15" s="21" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Duração Real (em dias)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Duração Real (em dias)]]-Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])/Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="N15" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O15" s="18" t="s">
@@ -2054,7 +2061,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="18" t="s">
         <v>45</v>
       </c>
@@ -2070,29 +2077,38 @@
       <c r="F16" s="19">
         <v>43705</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="H16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="22" t="str">
+      <c r="I16" s="19">
+        <v>43705</v>
+      </c>
+      <c r="J16" s="19">
+        <v>43705</v>
+      </c>
+      <c r="K16" s="21" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Trabalho Real (em horas)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Trabalho Real (em horas)]]-Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])/Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="22" t="str">
+      <c r="L16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="21" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Duração Real (em dias)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Duração Real (em dias)]]-Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])/Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="N16" s="23" t="str">
-        <f>IF(COUNTA('Controlador de projeto'!$I16,'Controlador de projeto'!$J16)&lt;&gt;2,"",DAYS360('Controlador de projeto'!$I16,'Controlador de projeto'!$J16,FALSE))</f>
-        <v/>
-      </c>
-      <c r="O16" s="35"/>
+      <c r="N16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="18" t="s">
         <v>46</v>
       </c>
@@ -2108,29 +2124,38 @@
       <c r="F17" s="19">
         <v>43706</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="H17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="22" t="str">
+      <c r="I17" s="19">
+        <v>43706</v>
+      </c>
+      <c r="J17" s="19">
+        <v>43706</v>
+      </c>
+      <c r="K17" s="21" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Trabalho Real (em horas)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Trabalho Real (em horas)]]-Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])/Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="22" t="str">
+      <c r="L17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="21" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Duração Real (em dias)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Duração Real (em dias)]]-Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])/Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="N17" s="23" t="str">
-        <f>IF(COUNTA('Controlador de projeto'!$I17,'Controlador de projeto'!$J17)&lt;&gt;2,"",DAYS360('Controlador de projeto'!$I17,'Controlador de projeto'!$J17,FALSE))</f>
-        <v/>
-      </c>
-      <c r="O17" s="18"/>
+      <c r="N17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="18" t="s">
         <v>47</v>
       </c>
@@ -2146,30 +2171,39 @@
       <c r="F18" s="19">
         <v>43706</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="H18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="22" t="str">
+      <c r="I18" s="19">
+        <v>43706</v>
+      </c>
+      <c r="J18" s="19">
+        <v>43706</v>
+      </c>
+      <c r="K18" s="21" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Trabalho Real (em horas)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Trabalho Real (em horas)]]-Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])/Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="22" t="str">
+      <c r="L18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="21" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Duração Real (em dias)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Duração Real (em dias)]]-Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])/Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="N18" s="23" t="str">
-        <f>IF(COUNTA('Controlador de projeto'!$I18,'Controlador de projeto'!$J18)&lt;&gt;2,"",DAYS360('Controlador de projeto'!$I18,'Controlador de projeto'!$J18,FALSE))</f>
-        <v/>
-      </c>
-      <c r="O18" s="18"/>
+      <c r="N18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="33" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -2184,56 +2218,70 @@
       <c r="F19" s="19">
         <v>43707</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="H19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="22" t="str">
+      <c r="I19" s="19">
+        <v>43707</v>
+      </c>
+      <c r="J19" s="19">
+        <v>43707</v>
+      </c>
+      <c r="K19" s="21" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Trabalho Real (em horas)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Trabalho Real (em horas)]]-Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])/Controlador_de_projeto[[#This Row],[Trabalho Estimado (em horas)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="22" t="str">
+      <c r="L19" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="21" t="str">
         <f>IFERROR(IF(Controlador_de_projeto[Duração Real (em dias)]=0,"",IF(ABS((Controlador_de_projeto[[#This Row],[Duração Real (em dias)]]-Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])/Controlador_de_projeto[[#This Row],[Duração Estimada (em dias)]])&gt;FlagPercent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="N19" s="23" t="str">
-        <f>IF(COUNTA('Controlador de projeto'!$I19,'Controlador de projeto'!$J19)&lt;&gt;2,"",DAYS360('Controlador de projeto'!$I19,'Controlador de projeto'!$J19,FALSE))</f>
-        <v/>
-      </c>
-      <c r="O19" s="18"/>
+      <c r="N19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L5 L8:L11">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="22" priority="11">
       <formula>(ABS((L5-G5))/G5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:N7 N9 N11:N13">
-    <cfRule type="expression" dxfId="4" priority="12">
+    <cfRule type="expression" dxfId="21" priority="13">
       <formula>(ABS((N5-H5))/H5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7 H10 H13 H16 H19">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>(ABS((H7-B7))/B7)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>(ABS((H5-B5))/B5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>(ABS((H6-B6))/B6)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
+    <cfRule type="expression" dxfId="17" priority="2">
+      <formula>(ABS((N10-H10))/H10)&gt;FlagPercent</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>(ABS((N10-H10))/H10)&gt;FlagPercent</formula>
+      <formula>(ABS((N19-H19))/H19)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="18">
@@ -2274,7 +2322,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{981D7EE4-7E94-41DD-989D-38C05876B668}">
+          <x14:cfRule type="iconSet" priority="28" id="{981D7EE4-7E94-41DD-989D-38C05876B668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2293,7 +2341,7 @@
           <xm:sqref>K5:K19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{136B1933-ABA4-46F0-A1B3-AE0D99AE777F}">
+          <x14:cfRule type="iconSet" priority="29" id="{136B1933-ABA4-46F0-A1B3-AE0D99AE777F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
